--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,126 +46,105 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
+    <t>money</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
@@ -178,15 +157,18 @@
     <t>little</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -196,21 +178,18 @@
     <t>toy</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -232,46 +211,52 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cute</t>
+    <t>nice</t>
   </si>
   <si>
     <t>family</t>
@@ -280,7 +265,10 @@
     <t>play</t>
   </si>
   <si>
-    <t>year</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -641,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>0.9076923076923077</v>
@@ -781,16 +769,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7150537634408602</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6857142857142857</v>
+        <v>0.6875</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.5595408895265424</v>
+        <v>0.5954088952654233</v>
       </c>
       <c r="L9">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="M9">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6727272727272727</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.5217391304347826</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6601941747572816</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.5145228215767634</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L11">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M11">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6554054054054054</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C12">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.4745901639344262</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L12">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M12">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6190476190476191</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.3968253968253968</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L13">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6134453781512605</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K14">
         <v>0.3914373088685015</v>
@@ -1310,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5416666666666666</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.3855421686746988</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4939759036144578</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.265625</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4888888888888889</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.2377622377622378</v>
+        <v>0.24</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4170616113744076</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.2258064516129032</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,28 +1548,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4315789473684211</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K20">
         <v>0.2208835341365462</v>
@@ -1610,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4312796208530806</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C21">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.216</v>
+        <v>0.21875</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4251968503937008</v>
+        <v>0.40625</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.1929824561403509</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L22">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>920</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4140625</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>39</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="K23">
-        <v>0.188034188034188</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,13 +1748,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4126984126984127</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1778,31 +1766,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.1084415584415584</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L24">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1373</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1798,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4044943820224719</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.09625668449197861</v>
+        <v>0.1805433829973707</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>338</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1848,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,19 +1866,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.08949416342412451</v>
+        <v>0.1096256684491979</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>234</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1898,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3793103448275862</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,31 +1916,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.08635097493036212</v>
+        <v>0.09935064935064936</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>328</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +1948,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,31 +1966,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.06149732620320856</v>
+        <v>0.07612456747404844</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N28">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>702</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +1998,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2857142857142857</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2028,31 +2016,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.0482897384305835</v>
+        <v>0.06685236768802229</v>
       </c>
       <c r="L29">
         <v>24</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N29">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>473</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,13 +2048,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2772277227722773</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C30">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2078,7 +2066,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>146</v>
+        <v>216</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30">
+        <v>0.0559254327563249</v>
+      </c>
+      <c r="L30">
+        <v>42</v>
+      </c>
+      <c r="M30">
+        <v>43</v>
+      </c>
+      <c r="N30">
+        <v>0.98</v>
+      </c>
+      <c r="O30">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2098,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2371134020618557</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2104,7 +2116,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>148</v>
+        <v>251</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31">
+        <v>0.04270462633451957</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>0.89</v>
+      </c>
+      <c r="O31">
+        <v>0.11</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2112,25 +2148,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.213768115942029</v>
+        <v>0.2010050251256282</v>
       </c>
       <c r="C32">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>217</v>
+        <v>159</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32">
+        <v>0.03556187766714083</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>0.93</v>
+      </c>
+      <c r="O32">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2138,13 +2198,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2051282051282051</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2156,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>93</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2164,13 +2224,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.205</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2182,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>159</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2190,25 +2250,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1860119047619048</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C35">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D35">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2216,13 +2276,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1785714285714286</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2234,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2242,25 +2302,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1708860759493671</v>
+        <v>0.141280353200883</v>
       </c>
       <c r="C37">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>262</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2268,13 +2328,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1677215189873418</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C38">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2286,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>263</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2294,25 +2354,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1656050955414013</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>131</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2320,25 +2380,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1527377521613833</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>294</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2346,25 +2406,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1479028697571744</v>
+        <v>0.1024498886414254</v>
       </c>
       <c r="C41">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2372,13 +2432,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1448598130841121</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2390,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>183</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2398,13 +2458,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1366120218579235</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2416,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>158</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2424,25 +2484,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1361256544502618</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>165</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2450,25 +2510,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1257142857142857</v>
+        <v>0.06942148760330578</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>153</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2476,25 +2536,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1086142322097378</v>
+        <v>0.06823529411764706</v>
       </c>
       <c r="C46">
         <v>29</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>238</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2502,25 +2562,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09677419354838709</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>224</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2528,207 +2588,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08705357142857142</v>
+        <v>0.04747320061255743</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.07947019867549669</v>
-      </c>
-      <c r="C49">
-        <v>48</v>
-      </c>
-      <c r="D49">
-        <v>52</v>
-      </c>
-      <c r="E49">
-        <v>0.08</v>
-      </c>
-      <c r="F49">
-        <v>0.92</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.07123287671232877</v>
-      </c>
-      <c r="C50">
-        <v>26</v>
-      </c>
-      <c r="D50">
-        <v>26</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.07082152974504249</v>
-      </c>
-      <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51">
-        <v>27</v>
-      </c>
-      <c r="E51">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F51">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.06074766355140187</v>
-      </c>
-      <c r="C52">
-        <v>26</v>
-      </c>
-      <c r="D52">
-        <v>32</v>
-      </c>
-      <c r="E52">
-        <v>0.19</v>
-      </c>
-      <c r="F52">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.05343511450381679</v>
-      </c>
-      <c r="C53">
-        <v>42</v>
-      </c>
-      <c r="D53">
-        <v>50</v>
-      </c>
-      <c r="E53">
-        <v>0.16</v>
-      </c>
-      <c r="F53">
-        <v>0.84</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="C54">
-        <v>33</v>
-      </c>
-      <c r="D54">
-        <v>39</v>
-      </c>
-      <c r="E54">
-        <v>0.15</v>
-      </c>
-      <c r="F54">
-        <v>0.85</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.04572564612326044</v>
-      </c>
-      <c r="C55">
-        <v>23</v>
-      </c>
-      <c r="D55">
-        <v>24</v>
-      </c>
-      <c r="E55">
-        <v>0.04</v>
-      </c>
-      <c r="F55">
-        <v>0.96</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>480</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
